--- a/data/trans_orig/P23_1_R_2016_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P23_1_R_2016_2023-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>461739</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>427632</v>
+        <v>428246</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>492724</v>
+        <v>495477</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.409344284214304</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.379106983969291</v>
+        <v>0.3796518200558249</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4368134830123294</v>
+        <v>0.4392541339372831</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>360</v>
@@ -763,19 +763,19 @@
         <v>372947</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>340405</v>
+        <v>340522</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>408770</v>
+        <v>402670</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.296353865143012</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2704951736198933</v>
+        <v>0.2705883348160281</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3248194344677637</v>
+        <v>0.3199726266354663</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>786</v>
@@ -784,19 +784,19 @@
         <v>834686</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>790364</v>
+        <v>786783</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>889310</v>
+        <v>880625</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3497607815747389</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3311883687404041</v>
+        <v>0.3296878827355615</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3726498344362861</v>
+        <v>0.369010715407996</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>666258</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>635273</v>
+        <v>632520</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>700365</v>
+        <v>699751</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5906557157856961</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5631865169876706</v>
+        <v>0.5607458660627171</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6208930160307089</v>
+        <v>0.6203481799441753</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>827</v>
@@ -834,19 +834,19 @@
         <v>885505</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>849682</v>
+        <v>855782</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>918047</v>
+        <v>917930</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.703646134856988</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6751805655322358</v>
+        <v>0.6800273733645336</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7295048263801063</v>
+        <v>0.7294116651839718</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1467</v>
@@ -855,19 +855,19 @@
         <v>1551763</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1497139</v>
+        <v>1505824</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1596085</v>
+        <v>1599666</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6502392184252611</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6273501655637141</v>
+        <v>0.6309892845920041</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6688116312595959</v>
+        <v>0.6703121172644385</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>301652</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>274556</v>
+        <v>273867</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>330845</v>
+        <v>329655</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3319143783625979</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3021001166762791</v>
+        <v>0.3013422397655954</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3640357698090405</v>
+        <v>0.3627261572469756</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>232</v>
@@ -980,19 +980,19 @@
         <v>238609</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>215840</v>
+        <v>212249</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>267558</v>
+        <v>265297</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2378395567579761</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2151438170917438</v>
+        <v>0.2115643883994488</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.266694764306273</v>
+        <v>0.2644414407817718</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>516</v>
@@ -1001,19 +1001,19 @@
         <v>540261</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>500468</v>
+        <v>501299</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>577616</v>
+        <v>579503</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.282554446752992</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2617427147459595</v>
+        <v>0.2621774759580348</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3020906794544961</v>
+        <v>0.303078067799436</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>607173</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>577980</v>
+        <v>579170</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>634269</v>
+        <v>634958</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6680856216374021</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6359642301909598</v>
+        <v>0.6372738427530246</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.697899883323721</v>
+        <v>0.6986577602344046</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>716</v>
@@ -1051,19 +1051,19 @@
         <v>764626</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>735677</v>
+        <v>737938</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>787395</v>
+        <v>790986</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7621604432420239</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7333052356937269</v>
+        <v>0.7355585592182282</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7848561829082562</v>
+        <v>0.7884356116005512</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1313</v>
@@ -1072,19 +1072,19 @@
         <v>1371799</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1334444</v>
+        <v>1332557</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1411592</v>
+        <v>1410761</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.717445553247008</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6979093205455039</v>
+        <v>0.6969219322005642</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7382572852540406</v>
+        <v>0.7378225240419655</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>204054</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>182254</v>
+        <v>179588</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>231686</v>
+        <v>231656</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2482944197837963</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2217680169587425</v>
+        <v>0.2185241509850165</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2819167134133438</v>
+        <v>0.2818807270138151</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>144</v>
@@ -1197,19 +1197,19 @@
         <v>147181</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>126083</v>
+        <v>125421</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>168725</v>
+        <v>171512</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1911520807873714</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1637498911049088</v>
+        <v>0.1628912598711434</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2191325274707104</v>
+        <v>0.2227516990589671</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>333</v>
@@ -1218,19 +1218,19 @@
         <v>351235</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>319263</v>
+        <v>319826</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>387673</v>
+        <v>387525</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2206539603207655</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2005680972136874</v>
+        <v>0.2009216781959503</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2435447216546123</v>
+        <v>0.2434518902497448</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>617769</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>590137</v>
+        <v>590167</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>639569</v>
+        <v>642235</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7517055802162036</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7180832865866562</v>
+        <v>0.7181192729861848</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7782319830412574</v>
+        <v>0.7814758490149836</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>583</v>
@@ -1268,19 +1268,19 @@
         <v>622789</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>601245</v>
+        <v>598458</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>643887</v>
+        <v>644549</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8088479192126286</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7808674725292897</v>
+        <v>0.7772483009410328</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8362501088950912</v>
+        <v>0.8371087401288566</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1179</v>
@@ -1289,19 +1289,19 @@
         <v>1240558</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1204120</v>
+        <v>1204268</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1272530</v>
+        <v>1271967</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7793460396792345</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7564552783453881</v>
+        <v>0.7565481097502552</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7994319027863126</v>
+        <v>0.7990783218040497</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>113894</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>95761</v>
+        <v>97261</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>134670</v>
+        <v>134505</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2247752861331695</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1889895522862782</v>
+        <v>0.1919502883601329</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2657771616436453</v>
+        <v>0.2654520505944223</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -1414,19 +1414,19 @@
         <v>82960</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>66353</v>
+        <v>68141</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>101661</v>
+        <v>100398</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1694096142763176</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1354968767072736</v>
+        <v>0.1391492086621514</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2075996649528939</v>
+        <v>0.2050195517859602</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>185</v>
@@ -1435,19 +1435,19 @@
         <v>196853</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>170589</v>
+        <v>173761</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>222571</v>
+        <v>222248</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.197564852515513</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1712056279155575</v>
+        <v>0.1743891849797438</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2233753546492108</v>
+        <v>0.2230509625967566</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>392807</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>372031</v>
+        <v>372196</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>410940</v>
+        <v>409440</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7752247138668306</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7342228383563548</v>
+        <v>0.7345479494055778</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8110104477137218</v>
+        <v>0.8080497116398672</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>375</v>
@@ -1485,19 +1485,19 @@
         <v>406738</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>388037</v>
+        <v>389300</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>423345</v>
+        <v>421557</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8305903857236824</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7924003350471059</v>
+        <v>0.7949804482140399</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8645031232927263</v>
+        <v>0.8608507913378487</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>741</v>
@@ -1506,19 +1506,19 @@
         <v>799545</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>773827</v>
+        <v>774150</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>825809</v>
+        <v>822637</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8024351474844871</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7766246453507892</v>
+        <v>0.7769490374032435</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8287943720844425</v>
+        <v>0.8256108150202562</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>1081339</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1027565</v>
+        <v>1028061</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1140657</v>
+        <v>1137721</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3213159002626926</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3053369896113429</v>
+        <v>0.305484610241517</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3389420094918841</v>
+        <v>0.3380696344176265</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>816</v>
@@ -1631,19 +1631,19 @@
         <v>841697</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>790280</v>
+        <v>793917</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>890389</v>
+        <v>893756</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2390264596265625</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2244250261954907</v>
+        <v>0.2254579011234502</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2528541016782109</v>
+        <v>0.2538103606794311</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1820</v>
@@ -1652,19 +1652,19 @@
         <v>1923036</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1846462</v>
+        <v>1845264</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1997816</v>
+        <v>1997453</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2792391060588187</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.268119964559743</v>
+        <v>0.2679460977381562</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2900977153153911</v>
+        <v>0.2900449692955649</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>2284007</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2224689</v>
+        <v>2227625</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2337781</v>
+        <v>2337285</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6786840997373074</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.661057990508116</v>
+        <v>0.6619303655823736</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6946630103886571</v>
+        <v>0.6945153897584829</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2501</v>
@@ -1702,19 +1702,19 @@
         <v>2679657</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2630965</v>
+        <v>2627598</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2731074</v>
+        <v>2727437</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7609735403734375</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7471458983217893</v>
+        <v>0.7461896393205689</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7755749738045093</v>
+        <v>0.7745420988765498</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4700</v>
@@ -1723,19 +1723,19 @@
         <v>4963664</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4888884</v>
+        <v>4889247</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5040238</v>
+        <v>5041436</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7207608939411813</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.709902284684608</v>
+        <v>0.7099550307044349</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7318800354402566</v>
+        <v>0.7320539022618439</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>178541</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>154594</v>
+        <v>155182</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>201585</v>
+        <v>203848</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3579856637177406</v>
+        <v>0.3579856637177407</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3099694302160968</v>
+        <v>0.3111480453556207</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.404189163059253</v>
+        <v>0.4087272119138066</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>174</v>
@@ -2088,19 +2088,19 @@
         <v>132175</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>114497</v>
+        <v>113999</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>151276</v>
+        <v>150907</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2119609219285669</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1836122035167036</v>
+        <v>0.1828134800540107</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2425929630773831</v>
+        <v>0.2420014040636638</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>344</v>
@@ -2109,19 +2109,19 @@
         <v>310716</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>283320</v>
+        <v>280849</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>342752</v>
+        <v>341229</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2768517807975053</v>
+        <v>0.2768517807975054</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.252441236887656</v>
+        <v>0.2502396224308641</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3053963825763687</v>
+        <v>0.3040388706199733</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>320198</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>297154</v>
+        <v>294891</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>344145</v>
+        <v>343557</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6420143362822593</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5958108369407469</v>
+        <v>0.5912727880861933</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.690030569783903</v>
+        <v>0.6888519546443794</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>687</v>
@@ -2159,19 +2159,19 @@
         <v>491405</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>472304</v>
+        <v>472673</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>509083</v>
+        <v>509581</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.788039078071433</v>
+        <v>0.7880390780714329</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7574070369226169</v>
+        <v>0.7579985959363362</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8163877964832964</v>
+        <v>0.8171865199459893</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>972</v>
@@ -2180,19 +2180,19 @@
         <v>811604</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>779568</v>
+        <v>781091</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>839000</v>
+        <v>841471</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7231482192024947</v>
+        <v>0.7231482192024946</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6946036174236313</v>
+        <v>0.6959611293800269</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7475587631123438</v>
+        <v>0.7497603775691357</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>239007</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>209592</v>
+        <v>208167</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>270719</v>
+        <v>270550</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2489297220652246</v>
+        <v>0.2489297220652245</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2182939365381837</v>
+        <v>0.2168098472839971</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2819585071544365</v>
+        <v>0.2817824060240119</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>262</v>
@@ -2305,19 +2305,19 @@
         <v>200397</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>177876</v>
+        <v>177382</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>222027</v>
+        <v>225326</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1795911801001527</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1594084122050141</v>
+        <v>0.1589659308952529</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1989760694452345</v>
+        <v>0.2019327861932439</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>472</v>
@@ -2326,19 +2326,19 @@
         <v>439403</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>402733</v>
+        <v>405618</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>475096</v>
+        <v>477719</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2116600272241901</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1939959238068663</v>
+        <v>0.1953856212377707</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2288529516046816</v>
+        <v>0.2301165484081053</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>721130</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>689418</v>
+        <v>689587</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>750545</v>
+        <v>751970</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7510702779347755</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7180414928455635</v>
+        <v>0.7182175939759882</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7817060634618164</v>
+        <v>0.7831901527160028</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1345</v>
@@ -2376,19 +2376,19 @@
         <v>915452</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>893822</v>
+        <v>890523</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>937973</v>
+        <v>938467</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8204088198998472</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8010239305547654</v>
+        <v>0.798067213806756</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8405915877949858</v>
+        <v>0.8410340691047473</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2045</v>
@@ -2397,19 +2397,19 @@
         <v>1636583</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1600890</v>
+        <v>1598267</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1673253</v>
+        <v>1670368</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7883399727758099</v>
+        <v>0.7883399727758098</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7711470483953179</v>
+        <v>0.7698834515918945</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8060040761931335</v>
+        <v>0.8046143787622291</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>231384</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>204909</v>
+        <v>202581</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>261299</v>
+        <v>262390</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2211068880408103</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1958083343853484</v>
+        <v>0.1935838932599893</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2496932338726193</v>
+        <v>0.2507356723520086</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>228</v>
@@ -2522,19 +2522,19 @@
         <v>160467</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>140897</v>
+        <v>138743</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>183088</v>
+        <v>180456</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.153169887738977</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1344892361493502</v>
+        <v>0.1324334337584921</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1747616609218066</v>
+        <v>0.1722499128513994</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>442</v>
@@ -2543,19 +2543,19 @@
         <v>391851</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>359033</v>
+        <v>356754</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>427142</v>
+        <v>429045</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1871195334230972</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1714478837883324</v>
+        <v>0.1703597319008708</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2039718496175332</v>
+        <v>0.2048805822736634</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>815095</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>785180</v>
+        <v>784089</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>841570</v>
+        <v>843898</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7788931119591898</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7503067661273807</v>
+        <v>0.7492643276479912</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8041916656146516</v>
+        <v>0.8064161067400105</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1288</v>
@@ -2593,19 +2593,19 @@
         <v>887175</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>864554</v>
+        <v>867186</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>906745</v>
+        <v>908899</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.846830112261023</v>
+        <v>0.8468301122610231</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8252383390781936</v>
+        <v>0.8277500871486008</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8655107638506497</v>
+        <v>0.8675665662415094</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2103</v>
@@ -2614,19 +2614,19 @@
         <v>1702270</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1666979</v>
+        <v>1665076</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1735088</v>
+        <v>1737367</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8128804665769028</v>
+        <v>0.8128804665769027</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7960281503824669</v>
+        <v>0.7951194177263367</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8285521162116677</v>
+        <v>0.8296402680991293</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>162885</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>138269</v>
+        <v>138550</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>190295</v>
+        <v>191230</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1670983289301773</v>
+        <v>0.1670983289301772</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1418449495726835</v>
+        <v>0.1421332906594154</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1952175165766652</v>
+        <v>0.1961759289095383</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>180</v>
@@ -2739,19 +2739,19 @@
         <v>133182</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>114120</v>
+        <v>115663</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>153104</v>
+        <v>155155</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1472001232232567</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1261310137292509</v>
+        <v>0.1278369535530086</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1692191874116134</v>
+        <v>0.1714857380532556</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>335</v>
@@ -2760,19 +2760,19 @@
         <v>296068</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>265034</v>
+        <v>264588</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>332826</v>
+        <v>329627</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1575198500066309</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1410086362034332</v>
+        <v>0.1407715367891521</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1770768438103752</v>
+        <v>0.1753746038737758</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>811902</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>784492</v>
+        <v>783557</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>836518</v>
+        <v>836237</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8329016710698227</v>
+        <v>0.8329016710698226</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8047824834233348</v>
+        <v>0.8038240710904616</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8581550504273165</v>
+        <v>0.8578667093405846</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1138</v>
@@ -2810,19 +2810,19 @@
         <v>771588</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>751666</v>
+        <v>749615</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>790650</v>
+        <v>789107</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8527998767767434</v>
+        <v>0.8527998767767433</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8307808125883868</v>
+        <v>0.8285142619467445</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8738689862707493</v>
+        <v>0.8721630464469915</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1929</v>
@@ -2831,19 +2831,19 @@
         <v>1583490</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1546732</v>
+        <v>1549931</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1614524</v>
+        <v>1614970</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8424801499933693</v>
+        <v>0.8424801499933692</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8229231561896245</v>
+        <v>0.8246253961262242</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8589913637965667</v>
+        <v>0.8592284632108479</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>811817</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>758583</v>
+        <v>754711</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>868226</v>
+        <v>867975</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2332712420308746</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2179746856192254</v>
+        <v>0.216862087709069</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2494799801458305</v>
+        <v>0.2494077362734642</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>844</v>
@@ -2956,19 +2956,19 @@
         <v>626221</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>588416</v>
+        <v>588458</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>670351</v>
+        <v>671620</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1696228821975134</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1593829084694545</v>
+        <v>0.1593940808038698</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1815762828298455</v>
+        <v>0.1819201860089187</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1593</v>
@@ -2977,19 +2977,19 @@
         <v>1438038</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1367208</v>
+        <v>1372245</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1511224</v>
+        <v>1512547</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2005076936109574</v>
+        <v>0.2005076936109573</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.190631705144821</v>
+        <v>0.1913341082531499</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.210712144426725</v>
+        <v>0.2108965538369012</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>2668326</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2611917</v>
+        <v>2612168</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2721560</v>
+        <v>2725432</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7667287579691253</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7505200198541697</v>
+        <v>0.7505922637265364</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7820253143807745</v>
+        <v>0.783137912290931</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4458</v>
@@ -3027,19 +3027,19 @@
         <v>3065620</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3021490</v>
+        <v>3020221</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3103425</v>
+        <v>3103383</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8303771178024866</v>
+        <v>0.8303771178024867</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8184237171701549</v>
+        <v>0.8180798139910812</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8406170915305455</v>
+        <v>0.8406059191961303</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7049</v>
@@ -3048,19 +3048,19 @@
         <v>5733946</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5660760</v>
+        <v>5659437</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5804776</v>
+        <v>5799739</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7994923063890428</v>
+        <v>0.7994923063890426</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.789287855573275</v>
+        <v>0.7891034461630988</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8093682948551789</v>
+        <v>0.8086658917468504</v>
       </c>
     </row>
     <row r="18">
